--- a/cea/databases/SIN/archetypes/construction_properties.xlsx
+++ b/cea/databases/SIN/archetypes/construction_properties.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Documents\GitHub\CEAforArcGIS\cea\databases\SIN\archetypes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JimenoF\Documents\GitHub\CityEnergyAnalyst\cea\databases\SIN\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="22020" tabRatio="785" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="22020" tabRatio="785" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARCHITECTURE" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="71">
   <si>
     <t>Code</t>
   </si>
@@ -244,12 +244,6 @@
   </si>
   <si>
     <t>type_el</t>
-  </si>
-  <si>
-    <t>rhum_min_pc</t>
-  </si>
-  <si>
-    <t>rhum_max_pc</t>
   </si>
 </sst>
 </file>
@@ -2171,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -3330,10 +3324,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3347,7 +3341,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -3366,14 +3360,8 @@
       <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -3392,14 +3380,8 @@
       <c r="F2" s="5">
         <v>10</v>
       </c>
-      <c r="G2" s="5">
-        <v>30</v>
-      </c>
-      <c r="H2" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -3418,14 +3400,8 @@
       <c r="F3" s="5">
         <v>10</v>
       </c>
-      <c r="G3" s="5">
-        <v>30</v>
-      </c>
-      <c r="H3" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -3441,17 +3417,11 @@
       <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="F4" s="5">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5">
-        <v>30</v>
-      </c>
-      <c r="H4" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>20</v>
       </c>
@@ -3467,17 +3437,11 @@
       <c r="E5" s="5">
         <v>10</v>
       </c>
-      <c r="F5" s="5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -3493,17 +3457,11 @@
       <c r="E6" s="5">
         <v>10</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="8">
         <v>8</v>
       </c>
-      <c r="G6" s="5">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>31</v>
       </c>
@@ -3519,17 +3477,11 @@
       <c r="E7" s="5">
         <v>10</v>
       </c>
-      <c r="F7" s="5">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5">
-        <v>30</v>
-      </c>
-      <c r="H7" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
@@ -3545,18 +3497,12 @@
       <c r="E8" s="5">
         <v>10</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <f t="shared" ref="F8" si="0">111*0.15+10*0.85</f>
         <v>25.15</v>
       </c>
-      <c r="G8" s="5">
-        <v>30</v>
-      </c>
-      <c r="H8" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
@@ -3572,17 +3518,11 @@
       <c r="E9" s="5">
         <v>10</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="8">
         <v>31</v>
       </c>
-      <c r="G9" s="5">
-        <v>30</v>
-      </c>
-      <c r="H9" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>68</v>
       </c>
@@ -3598,17 +3538,11 @@
       <c r="E10" s="5">
         <v>10</v>
       </c>
-      <c r="F10" s="5">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5">
-        <v>30</v>
-      </c>
-      <c r="H10" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>24</v>
       </c>
@@ -3624,17 +3558,11 @@
       <c r="E11" s="5">
         <v>10</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <v>8</v>
       </c>
-      <c r="G11" s="5">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>25</v>
       </c>
@@ -3650,17 +3578,11 @@
       <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="5">
-        <v>10</v>
-      </c>
-      <c r="G12" s="5">
-        <v>30</v>
-      </c>
-      <c r="H12" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
@@ -3676,17 +3598,11 @@
       <c r="E13" s="5">
         <v>10</v>
       </c>
-      <c r="F13" s="5">
-        <v>10</v>
-      </c>
-      <c r="G13" s="5">
-        <v>30</v>
-      </c>
-      <c r="H13" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>27</v>
       </c>
@@ -3702,17 +3618,11 @@
       <c r="E14" s="5">
         <v>10</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="8">
         <v>36</v>
       </c>
-      <c r="G14" s="5">
-        <v>30</v>
-      </c>
-      <c r="H14" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
@@ -3728,17 +3638,11 @@
       <c r="E15" s="5">
         <v>10</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="8">
         <v>36</v>
       </c>
-      <c r="G15" s="5">
-        <v>30</v>
-      </c>
-      <c r="H15" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -3754,17 +3658,11 @@
       <c r="E16" s="5">
         <v>10</v>
       </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
-        <v>30</v>
-      </c>
-      <c r="H16" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
@@ -3780,17 +3678,11 @@
       <c r="E17" s="5">
         <v>10</v>
       </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>30</v>
-      </c>
-      <c r="H17" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>40</v>
       </c>
@@ -3806,18 +3698,12 @@
       <c r="E18" s="5">
         <v>10</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="8">
         <f>F9</f>
         <v>31</v>
       </c>
-      <c r="G18" s="5">
-        <v>30</v>
-      </c>
-      <c r="H18" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
@@ -3833,17 +3719,11 @@
       <c r="E19" s="5">
         <v>10</v>
       </c>
-      <c r="F19" s="5">
-        <v>10</v>
-      </c>
-      <c r="G19" s="5">
-        <v>30</v>
-      </c>
-      <c r="H19" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>42</v>
       </c>
@@ -3859,14 +3739,8 @@
       <c r="E20" s="5">
         <v>10</v>
       </c>
-      <c r="F20" s="5">
-        <v>10</v>
-      </c>
-      <c r="G20" s="5">
-        <v>30</v>
-      </c>
-      <c r="H20" s="5">
-        <v>70</v>
+      <c r="F20" s="8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
